--- a/TIMPOINTER 클래스다이어그램.xlsx
+++ b/TIMPOINTER 클래스다이어그램.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minjae\OneDrive\수업\timpointer\idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\class\timpointer\idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="400" documentId="63B7B17D6529334DEFFF12E5877442A49D469C70" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{C0A33D53-0AE6-4A88-AFDD-0BF6FD40031B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{53298194-BB55-489B-B64E-A2DD30909A9B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
   <si>
     <t>BLE</t>
   </si>
@@ -60,7 +60,8 @@
     <t>컴퓨터와 연결이 끊겼을때 속성을 설정</t>
   </si>
   <si>
-    <t>BatteryQuantity</t>
+    <t>Battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int id</t>
@@ -99,10 +100,12 @@
     <t>센서에서 측정된 거리 mm</t>
   </si>
   <si>
-    <t>VL53l0x sensors[4]</t>
-  </si>
-  <si>
-    <t>센서 4개</t>
+    <t>VL53l0x sensors[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>void GetDistance()</t>
@@ -114,10 +117,106 @@
     <t>void SendDistance()</t>
   </si>
   <si>
-    <t>아두이노 id와 distance를 전송 sensor,[아두이노id]:[distance]\n</t>
-  </si>
-  <si>
-    <t>void SetSensor()</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아두이노</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>distance,[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아두이노</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>id]:[distance]\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void Init()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>센서 초기설정</t>
@@ -364,7 +463,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +492,20 @@
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -416,7 +529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,6 +537,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,16 +859,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A145" sqref="A1:XFD145"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="30.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -854,415 +973,407 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="1" t="s">
-        <v>24</v>
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="23" spans="1:3">
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="1" t="s">
-        <v>32</v>
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="2" t="s">
-        <v>38</v>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>44</v>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="2" t="s">
-        <v>46</v>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="B32" s="1" t="s">
-        <v>48</v>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="B33" s="2" t="s">
-        <v>50</v>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="1" t="s">
         <v>57</v>
       </c>
     </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="39" spans="1:3">
-      <c r="B39" s="1" t="s">
-        <v>0</v>
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B40" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="B41" s="2" t="s">
-        <v>59</v>
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="B43" s="1" t="s">
-        <v>62</v>
+      <c r="B43" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="B44" s="2" t="s">
-        <v>64</v>
+      <c r="B44" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="B45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="1" t="s">
         <v>67</v>
       </c>
     </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B48" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="B49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="B53" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="B54" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="1" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B56" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B58" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="B63" s="1" t="s">
         <v>88</v>
       </c>
     </row>
+    <row r="64" spans="1:3">
+      <c r="B64" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B65" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>91</v>
       </c>
     </row>
+    <row r="67" spans="1:3">
+      <c r="B67" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B69" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B71" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B72" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="B73" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="B75" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C75" s="1" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="B77" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="B78" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="1" t="s">
         <v>110</v>
       </c>
     </row>
